--- a/C#_Fundametal.xlsx
+++ b/C#_Fundametal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24210" windowHeight="12375"/>
+    <workbookView windowWidth="22368" windowHeight="9215" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Chung" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Chung!$A$1:$AC$319</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Lambda!$A$1:$AC$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">FuncDelegate!$A$1:$AC$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Regex!$A$1:$AC$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Regex!$A$1:$AC$45</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="308">
   <si>
     <t>C#</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">DateTime speday = new DateTime(1988, 1, 1); </t>
     </r>
     <r>
@@ -2117,6 +2123,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>@"^[</t>
     </r>
     <r>
@@ -2198,6 +2211,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>@"^[</t>
     </r>
     <r>
@@ -2246,6 +2266,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>@"^[</t>
     </r>
     <r>
@@ -2375,16 +2402,22 @@
   <si>
     <t>@"^[\x01-\x7F]+@(([-a-z0-9]+\.)*[a-z]+|\[\d{1,3}\.\d{1,3}\.\d{1,3}\.\d{1,3}\])"</t>
   </si>
+  <si>
+    <t>Password contains at least 1 number, uppercase, special character</t>
+  </si>
+  <si>
+    <t>^(?=.*\d)(?=.*[A-Z])(?=.*[\W_]).+$</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -2537,14 +2570,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2553,7 +2578,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2567,8 +2622,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2591,17 +2670,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2621,51 +2692,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2676,6 +2702,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2814,7 +2847,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2826,19 +2919,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2850,7 +2973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2862,19 +2985,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2886,31 +3003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2923,72 +3022,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3186,6 +3219,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3228,45 +3300,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -3286,13 +3319,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3304,130 +3337,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3758,8 +3791,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="483870" y="1779270"/>
-          <a:ext cx="4352925" cy="1590675"/>
+          <a:off x="497840" y="1718310"/>
+          <a:ext cx="4477385" cy="1529715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3802,8 +3835,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="483870" y="3734435"/>
-          <a:ext cx="6181725" cy="1295400"/>
+          <a:off x="497840" y="3597275"/>
+          <a:ext cx="6359525" cy="1242060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4108,18 +4141,18 @@
   <sheetPr/>
   <dimension ref="A1:AC318"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.62857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.62962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.62857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.62857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.62857142857143" style="2"/>
-    <col min="4" max="28" width="4.62857142857143" style="1"/>
-    <col min="29" max="29" width="2.62857142857143" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="4.62857142857143" style="3"/>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.62962962962963" style="2"/>
+    <col min="4" max="28" width="4.62962962962963" style="1"/>
+    <col min="29" max="29" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="4.62962962962963" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28">
@@ -14123,7 +14156,7 @@
       <c r="AA317" s="12"/>
       <c r="AB317" s="24"/>
     </row>
-    <row r="318" ht="15.75" spans="2:28">
+    <row r="318" ht="15.15" spans="2:28">
       <c r="B318" s="18"/>
       <c r="C318" s="19"/>
       <c r="D318" s="20"/>
@@ -14174,14 +14207,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.62857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.62962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.62857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.62857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.62857142857143" style="2"/>
-    <col min="4" max="28" width="4.62857142857143" style="1"/>
-    <col min="29" max="29" width="2.62857142857143" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="4.62857142857143" style="3"/>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.62962962962963" style="2"/>
+    <col min="4" max="28" width="4.62962962962963" style="1"/>
+    <col min="29" max="29" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="4.62962962962963" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28">
@@ -15627,7 +15660,7 @@
       <c r="AA47" s="12"/>
       <c r="AB47" s="24"/>
     </row>
-    <row r="48" spans="2:28">
+    <row r="48" ht="15.15" spans="2:28">
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="20"/>
@@ -15672,17 +15705,17 @@
   <dimension ref="B1:AB43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.62857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.62962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.62857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.62857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.62857142857143" style="2"/>
-    <col min="4" max="28" width="4.62857142857143" style="1"/>
-    <col min="29" max="29" width="2.62857142857143" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="4.62857142857143" style="3"/>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.62962962962963" style="2"/>
+    <col min="4" max="28" width="4.62962962962963" style="1"/>
+    <col min="29" max="29" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="4.62962962962963" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28">
@@ -16945,7 +16978,7 @@
       <c r="AA42" s="12"/>
       <c r="AB42" s="24"/>
     </row>
-    <row r="43" ht="15.75" spans="2:28">
+    <row r="43" ht="15.15" spans="2:28">
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="20"/>
@@ -16988,20 +17021,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AB40"/>
+  <dimension ref="B1:AB44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.62857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.62962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.62857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.62857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.62857142857143" style="2"/>
-    <col min="4" max="28" width="4.62857142857143" style="1"/>
-    <col min="29" max="29" width="2.62857142857143" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="4.62857142857143" style="3"/>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.62962962962963" style="2"/>
+    <col min="4" max="28" width="4.62962962962963" style="1"/>
+    <col min="29" max="29" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="4.62962962962963" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28">
@@ -17775,7 +17808,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="24"/>
     </row>
-    <row r="26" ht="16.5" spans="2:28">
+    <row r="26" spans="2:28">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="14"/>
@@ -18054,7 +18087,7 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="24"/>
     </row>
-    <row r="35" ht="16.5" spans="2:28">
+    <row r="35" spans="2:28">
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
       <c r="D35" s="14"/>
@@ -18178,7 +18211,7 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="24"/>
     </row>
-    <row r="39" spans="2:28">
+    <row r="39" ht="14" customHeight="1" spans="2:28">
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
       <c r="D39" s="14"/>
@@ -18207,34 +18240,156 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="24"/>
     </row>
-    <row r="40" ht="15.75" spans="2:28">
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="25"/>
+    <row r="40" ht="14" customHeight="1" spans="2:28">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="24"/>
+    </row>
+    <row r="41" ht="14" customHeight="1" spans="2:28">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="24"/>
+    </row>
+    <row r="42" ht="14" customHeight="1" spans="2:28">
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="24"/>
+    </row>
+    <row r="43" ht="14" customHeight="1" spans="2:28">
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="24"/>
+    </row>
+    <row r="44" ht="15.15" spans="2:28">
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
